--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>275312.1090993883</v>
+        <v>271495.7204537191</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24756446.78196647</v>
+        <v>24756446.78196648</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5893345.036404626</v>
+        <v>5893345.036404627</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.936335668195668</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>140.6819669404692</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>73.29899740799679</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>64.3496532346247</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>262.9961833483606</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>220.8351373180974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>3.423392126084869</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>52.49195549286388</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.22766558149531</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1195,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>134.6234198198289</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022503</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1378,16 +1378,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>359.3137022411914</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>59.10029667301191</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.6587833288852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>61.4990276876818</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.7716684859222</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.33663364917461</v>
+        <v>2.336633649174104</v>
       </c>
       <c r="S13" t="n">
         <v>150.3363676550728</v>
@@ -1612,16 +1612,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>44.67493797991977</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.7716684859222</v>
       </c>
       <c r="U14" t="n">
-        <v>59.1002966730117</v>
+        <v>256.5552444969113</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1855,13 +1855,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>361.4216735121267</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>276.6587833288852</v>
+        <v>59.42163748540801</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>61.4990276876818</v>
       </c>
       <c r="T17" t="n">
-        <v>213.7716684859222</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.5552444969113</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2089,16 +2089,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4484135724446</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>85.00334450027879</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>61.4990276876818</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>213.7716684859222</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>102.2052134963969</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4484135724446</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>182.2068663981164</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>61.4990276876818</v>
       </c>
       <c r="T26" t="n">
         <v>213.7716684859222</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.5552444969113</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>369.8042358164006</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2800,16 +2800,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H29" t="n">
-        <v>276.6587833288852</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.4990276876818</v>
       </c>
       <c r="T29" t="n">
         <v>213.7716684859222</v>
@@ -2851,7 +2851,7 @@
         <v>256.5552444969113</v>
       </c>
       <c r="V29" t="n">
-        <v>66.67092688174583</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>379.4172410731655</v>
       </c>
     </row>
     <row r="30">
@@ -3037,10 +3037,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>396.4484135724446</v>
@@ -3088,13 +3088,13 @@
         <v>256.5552444969113</v>
       </c>
       <c r="V32" t="n">
-        <v>9.530385664696672</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>102.7584577442803</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>242.4463546568562</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.7716684859222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>388.2236859931397</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4484135724446</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>276.6587833288852</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>61.4990276876818</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.7716684859222</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5552444969113</v>
       </c>
       <c r="V38" t="n">
-        <v>2.257170834538569</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>80.8594701099767</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>354.9320823632464</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H41" t="n">
-        <v>181.5375535007945</v>
+        <v>276.6587833288852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>50.46258016460993</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>377.4759096700012</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4155,7 +4155,7 @@
         <v>134.7724741951195</v>
       </c>
       <c r="I46" t="n">
-        <v>75.15465438274072</v>
+        <v>75.15465438274104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2048.221573682272</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.079100865695</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="D2" t="n">
-        <v>1174.16931604014</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748445</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.221573682272</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.221573682272</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.221573682272</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.221573682272</v>
+        <v>1341.342961446033</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4412,19 +4412,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>654.1174985156322</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>484.3594947663694</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>307.6524407281256</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,13 +4500,13 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.090633274849</v>
+        <v>1618.838574230592</v>
       </c>
       <c r="C5" t="n">
-        <v>342.9481604582723</v>
+        <v>1180.696101414015</v>
       </c>
       <c r="D5" t="n">
-        <v>342.9481604582723</v>
+        <v>1180.696101414015</v>
       </c>
       <c r="E5" t="n">
-        <v>342.9481604582723</v>
+        <v>746.9213565723103</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>319.053926981518</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>319.053926981518</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
         <v>1293.567921177998</v>
@@ -4585,10 +4585,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621484</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.298891966344</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>1004.156428545654</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.090633274849</v>
+        <v>2045.1381447155</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7523231022661</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>617.3126187870138</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E7" t="n">
-        <v>447.554615037751</v>
+        <v>399.1575173855749</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>222.4504633473311</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>56.85918837315873</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2457.797280463905</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2179.364279717011</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1892.408771587441</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.382367173733</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1374.990612507145</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1147.570941821253</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>481.6854354922808</v>
+        <v>781.090633274849</v>
       </c>
       <c r="C8" t="n">
-        <v>481.6854354922808</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D8" t="n">
-        <v>481.6854354922808</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612186</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2582.420166112559</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>1608.519220395885</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>1189.376756975196</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291448</v>
+        <v>781.090633274849</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>394.9608689238807</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516122</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348371</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363599</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870971</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885332</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1427.981930291877</v>
+        <v>1977.359309156747</v>
       </c>
       <c r="C11" t="n">
-        <v>989.8394574753002</v>
+        <v>1539.21683634017</v>
       </c>
       <c r="D11" t="n">
-        <v>553.9296726497446</v>
+        <v>1103.307051514615</v>
       </c>
       <c r="E11" t="n">
-        <v>120.1549278080398</v>
+        <v>740.3639179376538</v>
       </c>
       <c r="F11" t="n">
-        <v>120.1549278080398</v>
+        <v>740.3639179376538</v>
       </c>
       <c r="G11" t="n">
-        <v>60.45765844136105</v>
+        <v>339.9109749351845</v>
       </c>
       <c r="H11" t="n">
         <v>60.45765844136105</v>
@@ -5068,25 +5068,25 @@
         <v>3022.882922068053</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.882922068053</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="T11" t="n">
-        <v>3022.882922068053</v>
+        <v>2744.831713811887</v>
       </c>
       <c r="U11" t="n">
-        <v>3022.882922068053</v>
+        <v>2744.831713811887</v>
       </c>
       <c r="V11" t="n">
-        <v>2660.265972001879</v>
+        <v>2382.214763745714</v>
       </c>
       <c r="W11" t="n">
-        <v>2255.410517412913</v>
+        <v>1977.359309156747</v>
       </c>
       <c r="X11" t="n">
-        <v>1836.268053992223</v>
+        <v>1977.359309156747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1427.981930291877</v>
+        <v>1977.359309156747</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>103.5812824523035</v>
       </c>
       <c r="J12" t="n">
-        <v>150.3950915313217</v>
+        <v>474.953416497534</v>
       </c>
       <c r="K12" t="n">
-        <v>230.4073476411687</v>
+        <v>554.9656726073808</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5708708530116</v>
+        <v>662.5520250727631</v>
       </c>
       <c r="M12" t="n">
-        <v>1154.278839568828</v>
+        <v>788.1002238794517</v>
       </c>
       <c r="N12" t="n">
-        <v>1283.149925617605</v>
+        <v>916.9713099282286</v>
       </c>
       <c r="O12" t="n">
-        <v>1401.041792341968</v>
+        <v>1034.863176652591</v>
       </c>
       <c r="P12" t="n">
-        <v>1495.660408918835</v>
+        <v>1129.481793229459</v>
       </c>
       <c r="Q12" t="n">
         <v>1558.910448352276</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1122.577455746641</v>
+        <v>1122.577455746642</v>
       </c>
       <c r="C13" t="n">
-        <v>950.0157442298663</v>
+        <v>950.0157442298664</v>
       </c>
       <c r="D13" t="n">
         <v>784.137751431389</v>
       </c>
       <c r="E13" t="n">
-        <v>614.3797476821263</v>
+        <v>614.379747682126</v>
       </c>
       <c r="F13" t="n">
-        <v>437.6726936438826</v>
+        <v>437.6726936438823</v>
       </c>
       <c r="G13" t="n">
-        <v>272.5052630654623</v>
+        <v>272.5052630654618</v>
       </c>
       <c r="H13" t="n">
         <v>136.3714507471598</v>
@@ -5199,19 +5199,19 @@
         <v>60.45765844136105</v>
       </c>
       <c r="J13" t="n">
-        <v>110.3502153251371</v>
+        <v>110.3502153251363</v>
       </c>
       <c r="K13" t="n">
-        <v>433.3717464716819</v>
+        <v>433.3717464716811</v>
       </c>
       <c r="L13" t="n">
-        <v>913.3417498604758</v>
+        <v>913.341749860475</v>
       </c>
       <c r="M13" t="n">
-        <v>1437.94300588253</v>
+        <v>1437.943005882529</v>
       </c>
       <c r="N13" t="n">
-        <v>1943.770851919194</v>
+        <v>1943.770851919193</v>
       </c>
       <c r="O13" t="n">
         <v>2422.15640119149</v>
@@ -5223,7 +5223,7 @@
         <v>3022.882922068053</v>
       </c>
       <c r="R13" t="n">
-        <v>3020.522686058785</v>
+        <v>3020.522686058786</v>
       </c>
       <c r="S13" t="n">
         <v>2868.66776923548</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1368.284660925198</v>
+        <v>1372.046703830916</v>
       </c>
       <c r="C14" t="n">
-        <v>930.1421881086214</v>
+        <v>933.9042310143395</v>
       </c>
       <c r="D14" t="n">
-        <v>494.2324032830659</v>
+        <v>933.9042310143395</v>
       </c>
       <c r="E14" t="n">
-        <v>60.45765844136105</v>
+        <v>888.7780310346226</v>
       </c>
       <c r="F14" t="n">
-        <v>60.45765844136105</v>
+        <v>460.9106014438303</v>
       </c>
       <c r="G14" t="n">
         <v>60.45765844136105</v>
@@ -5308,22 +5308,22 @@
         <v>3022.882922068053</v>
       </c>
       <c r="T14" t="n">
-        <v>3022.882922068053</v>
+        <v>2806.951943799445</v>
       </c>
       <c r="U14" t="n">
-        <v>2963.185652701374</v>
+        <v>2547.805232186403</v>
       </c>
       <c r="V14" t="n">
-        <v>2600.568702635201</v>
+        <v>2185.188282120229</v>
       </c>
       <c r="W14" t="n">
-        <v>2195.713248046234</v>
+        <v>1780.332827531263</v>
       </c>
       <c r="X14" t="n">
-        <v>1776.570784625545</v>
+        <v>1780.332827531263</v>
       </c>
       <c r="Y14" t="n">
-        <v>1368.284660925198</v>
+        <v>1372.046703830916</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>474.953416497534</v>
       </c>
       <c r="K15" t="n">
-        <v>921.1442882967573</v>
+        <v>554.9656726073808</v>
       </c>
       <c r="L15" t="n">
-        <v>1028.730640762139</v>
+        <v>662.5520250727631</v>
       </c>
       <c r="M15" t="n">
-        <v>1154.278839568828</v>
+        <v>788.1002238794517</v>
       </c>
       <c r="N15" t="n">
-        <v>1283.149925617605</v>
+        <v>916.9713099282286</v>
       </c>
       <c r="O15" t="n">
-        <v>1401.041792341968</v>
+        <v>1034.863176652591</v>
       </c>
       <c r="P15" t="n">
-        <v>1495.660408918835</v>
+        <v>1129.481793229459</v>
       </c>
       <c r="Q15" t="n">
         <v>1558.910448352276</v>
@@ -5442,7 +5442,7 @@
         <v>499.4283541365518</v>
       </c>
       <c r="L16" t="n">
-        <v>979.3983575253458</v>
+        <v>979.3983575253457</v>
       </c>
       <c r="M16" t="n">
         <v>1503.9996135474</v>
@@ -5451,7 +5451,7 @@
         <v>2009.827459584063</v>
       </c>
       <c r="O16" t="n">
-        <v>2488.21300885636</v>
+        <v>2488.213008856359</v>
       </c>
       <c r="P16" t="n">
         <v>2885.961841070774</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1574.667902089442</v>
+        <v>1856.173946561857</v>
       </c>
       <c r="C17" t="n">
-        <v>1574.667902089442</v>
+        <v>1418.03147374528</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.758117263886</v>
+        <v>982.1216889197249</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9833724221812</v>
+        <v>548.34694407802</v>
       </c>
       <c r="F17" t="n">
-        <v>704.9833724221812</v>
+        <v>120.4795144872277</v>
       </c>
       <c r="G17" t="n">
-        <v>339.9109749351845</v>
+        <v>120.4795144872277</v>
       </c>
       <c r="H17" t="n">
         <v>60.45765844136105</v>
@@ -5530,7 +5530,7 @@
         <v>1201.407850241917</v>
       </c>
       <c r="O17" t="n">
-        <v>1400.886583387367</v>
+        <v>1949.571373453761</v>
       </c>
       <c r="P17" t="n">
         <v>2149.05010659921</v>
@@ -5542,25 +5542,25 @@
         <v>3022.882922068053</v>
       </c>
       <c r="S17" t="n">
-        <v>3022.882922068053</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="T17" t="n">
-        <v>2806.951943799445</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="U17" t="n">
-        <v>2806.951943799445</v>
+        <v>2701.615980467454</v>
       </c>
       <c r="V17" t="n">
-        <v>2806.951943799445</v>
+        <v>2701.615980467454</v>
       </c>
       <c r="W17" t="n">
-        <v>2402.096489210478</v>
+        <v>2701.615980467454</v>
       </c>
       <c r="X17" t="n">
-        <v>1982.954025789788</v>
+        <v>2282.473517046765</v>
       </c>
       <c r="Y17" t="n">
-        <v>1574.667902089442</v>
+        <v>2282.473517046765</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>103.5812824523035</v>
       </c>
       <c r="J18" t="n">
-        <v>300.3930935548346</v>
+        <v>474.953416497534</v>
       </c>
       <c r="K18" t="n">
-        <v>380.4053496646816</v>
+        <v>554.9656726073808</v>
       </c>
       <c r="L18" t="n">
-        <v>487.9917021300637</v>
+        <v>662.5520250727631</v>
       </c>
       <c r="M18" t="n">
-        <v>613.5399009367525</v>
+        <v>788.1002238794517</v>
       </c>
       <c r="N18" t="n">
-        <v>742.4109869855292</v>
+        <v>916.9713099282286</v>
       </c>
       <c r="O18" t="n">
-        <v>860.3028537098921</v>
+        <v>1034.863176652591</v>
       </c>
       <c r="P18" t="n">
-        <v>954.9214702867594</v>
+        <v>1129.481793229459</v>
       </c>
       <c r="Q18" t="n">
         <v>1558.910448352276</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1122.577455746641</v>
+        <v>1122.577455746642</v>
       </c>
       <c r="C19" t="n">
-        <v>950.0157442298663</v>
+        <v>950.0157442298664</v>
       </c>
       <c r="D19" t="n">
         <v>784.137751431389</v>
       </c>
       <c r="E19" t="n">
-        <v>614.3797476821263</v>
+        <v>614.379747682126</v>
       </c>
       <c r="F19" t="n">
-        <v>437.6726936438826</v>
+        <v>437.6726936438823</v>
       </c>
       <c r="G19" t="n">
-        <v>272.5052630654623</v>
+        <v>272.5052630654618</v>
       </c>
       <c r="H19" t="n">
         <v>136.3714507471598</v>
@@ -5673,31 +5673,31 @@
         <v>60.45765844136105</v>
       </c>
       <c r="J19" t="n">
-        <v>110.3502153251357</v>
+        <v>176.406822990007</v>
       </c>
       <c r="K19" t="n">
-        <v>433.3717464716806</v>
+        <v>499.4283541365518</v>
       </c>
       <c r="L19" t="n">
-        <v>913.3417498604745</v>
+        <v>979.3983575253457</v>
       </c>
       <c r="M19" t="n">
-        <v>1437.943005882528</v>
+        <v>1503.9996135474</v>
       </c>
       <c r="N19" t="n">
-        <v>1943.770851919192</v>
+        <v>2009.827459584063</v>
       </c>
       <c r="O19" t="n">
-        <v>2422.156401191489</v>
+        <v>2488.213008856359</v>
       </c>
       <c r="P19" t="n">
-        <v>2819.905233405903</v>
+        <v>2885.961841070774</v>
       </c>
       <c r="Q19" t="n">
-        <v>3022.882922068052</v>
+        <v>3022.882922068053</v>
       </c>
       <c r="R19" t="n">
-        <v>3020.522686058785</v>
+        <v>3020.522686058786</v>
       </c>
       <c r="S19" t="n">
         <v>2868.66776923548</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1420.824823227658</v>
+        <v>1796.15209051599</v>
       </c>
       <c r="C20" t="n">
-        <v>982.6823504110816</v>
+        <v>1358.009617699414</v>
       </c>
       <c r="D20" t="n">
-        <v>546.7725655855261</v>
+        <v>922.0998328738581</v>
       </c>
       <c r="E20" t="n">
-        <v>546.7725655855261</v>
+        <v>488.3250880321533</v>
       </c>
       <c r="F20" t="n">
-        <v>546.7725655855261</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="G20" t="n">
-        <v>146.3196225830568</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="H20" t="n">
         <v>60.45765844136105</v>
@@ -5764,10 +5764,10 @@
         <v>1036.164171417893</v>
       </c>
       <c r="N20" t="n">
-        <v>1267.714389030995</v>
+        <v>1201.407850241917</v>
       </c>
       <c r="O20" t="n">
-        <v>2015.877912242838</v>
+        <v>1949.571373453761</v>
       </c>
       <c r="P20" t="n">
         <v>2149.05010659921</v>
@@ -5779,25 +5779,25 @@
         <v>3022.882922068053</v>
       </c>
       <c r="S20" t="n">
-        <v>3022.882922068053</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="T20" t="n">
-        <v>3022.882922068053</v>
+        <v>2744.831713811887</v>
       </c>
       <c r="U20" t="n">
-        <v>3022.882922068053</v>
+        <v>2641.594124421587</v>
       </c>
       <c r="V20" t="n">
-        <v>2660.265972001879</v>
+        <v>2641.594124421587</v>
       </c>
       <c r="W20" t="n">
-        <v>2255.410517412913</v>
+        <v>2641.594124421587</v>
       </c>
       <c r="X20" t="n">
-        <v>2255.410517412913</v>
+        <v>2222.451661000898</v>
       </c>
       <c r="Y20" t="n">
-        <v>1847.124393712566</v>
+        <v>2222.451661000898</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1877.276479558254</v>
+        <v>561.2411997635004</v>
       </c>
       <c r="C21" t="n">
-        <v>1770.820018394897</v>
+        <v>454.7847386001426</v>
       </c>
       <c r="D21" t="n">
-        <v>1675.72972954145</v>
+        <v>359.6944497466959</v>
       </c>
       <c r="E21" t="n">
-        <v>1581.609314868404</v>
+        <v>265.5740350736496</v>
       </c>
       <c r="F21" t="n">
-        <v>1498.225476484565</v>
+        <v>182.1901966898112</v>
       </c>
       <c r="G21" t="n">
-        <v>1413.345946601188</v>
+        <v>97.31066680643418</v>
       </c>
       <c r="H21" t="n">
-        <v>1376.492938236115</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I21" t="n">
-        <v>1419.616562247058</v>
+        <v>103.5812824523035</v>
       </c>
       <c r="J21" t="n">
-        <v>1790.988696292288</v>
+        <v>474.953416497534</v>
       </c>
       <c r="K21" t="n">
-        <v>1871.000952402135</v>
+        <v>554.9656726073808</v>
       </c>
       <c r="L21" t="n">
-        <v>1978.587304867517</v>
+        <v>662.5520250727631</v>
       </c>
       <c r="M21" t="n">
-        <v>2104.135503674206</v>
+        <v>788.1002238794517</v>
       </c>
       <c r="N21" t="n">
-        <v>2233.006589722982</v>
+        <v>916.9713099282286</v>
       </c>
       <c r="O21" t="n">
-        <v>2350.898456447346</v>
+        <v>1034.863176652591</v>
       </c>
       <c r="P21" t="n">
-        <v>2445.517073024213</v>
+        <v>1129.481793229459</v>
       </c>
       <c r="Q21" t="n">
-        <v>2874.94572814703</v>
+        <v>1558.910448352276</v>
       </c>
       <c r="R21" t="n">
-        <v>3022.882922068053</v>
+        <v>1706.847642273299</v>
       </c>
       <c r="S21" t="n">
-        <v>2968.818037001565</v>
+        <v>1652.782757206811</v>
       </c>
       <c r="T21" t="n">
-        <v>2840.677154308279</v>
+        <v>1524.641874513525</v>
       </c>
       <c r="U21" t="n">
-        <v>2664.373867824723</v>
+        <v>1348.33858802997</v>
       </c>
       <c r="V21" t="n">
-        <v>2465.256349886723</v>
+        <v>1149.221070091969</v>
       </c>
       <c r="W21" t="n">
-        <v>2279.933595619917</v>
+        <v>963.8983158251629</v>
       </c>
       <c r="X21" t="n">
-        <v>2125.066159858797</v>
+        <v>809.0308800640428</v>
       </c>
       <c r="Y21" t="n">
-        <v>1998.580380638017</v>
+        <v>682.5451008432635</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1122.577455746642</v>
+        <v>1122.577455746641</v>
       </c>
       <c r="C22" t="n">
-        <v>950.0157442298665</v>
+        <v>950.0157442298663</v>
       </c>
       <c r="D22" t="n">
-        <v>784.1377514313892</v>
+        <v>784.137751431389</v>
       </c>
       <c r="E22" t="n">
-        <v>614.3797476821264</v>
+        <v>614.3797476821263</v>
       </c>
       <c r="F22" t="n">
-        <v>437.6726936438827</v>
+        <v>437.6726936438826</v>
       </c>
       <c r="G22" t="n">
         <v>272.5052630654623</v>
@@ -5910,13 +5910,13 @@
         <v>60.45765844136105</v>
       </c>
       <c r="J22" t="n">
-        <v>110.3502153251362</v>
+        <v>176.406822990007</v>
       </c>
       <c r="K22" t="n">
-        <v>433.371746471681</v>
+        <v>499.4283541365518</v>
       </c>
       <c r="L22" t="n">
-        <v>913.3417498604749</v>
+        <v>979.3983575253457</v>
       </c>
       <c r="M22" t="n">
         <v>1437.943005882529</v>
@@ -5925,16 +5925,16 @@
         <v>1943.770851919193</v>
       </c>
       <c r="O22" t="n">
-        <v>2422.156401191489</v>
+        <v>2422.15640119149</v>
       </c>
       <c r="P22" t="n">
         <v>2819.905233405904</v>
       </c>
       <c r="Q22" t="n">
-        <v>3022.882922068053</v>
+        <v>3022.882922068052</v>
       </c>
       <c r="R22" t="n">
-        <v>3020.522686058786</v>
+        <v>3020.522686058785</v>
       </c>
       <c r="S22" t="n">
         <v>2868.66776923548</v>
@@ -5946,13 +5946,13 @@
         <v>2346.189412361386</v>
       </c>
       <c r="V22" t="n">
-        <v>2059.233904231817</v>
+        <v>2059.233904231816</v>
       </c>
       <c r="W22" t="n">
         <v>1787.207499818108</v>
       </c>
       <c r="X22" t="n">
-        <v>1541.815745151521</v>
+        <v>1541.81574515152</v>
       </c>
       <c r="Y22" t="n">
         <v>1314.396074465629</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2517.110878789315</v>
+        <v>2517.110878789314</v>
       </c>
       <c r="C23" t="n">
-        <v>2078.968405972738</v>
+        <v>2078.968405972737</v>
       </c>
       <c r="D23" t="n">
-        <v>1643.058621147183</v>
+        <v>1643.058621147182</v>
       </c>
       <c r="E23" t="n">
-        <v>1209.283876305478</v>
+        <v>1209.283876305477</v>
       </c>
       <c r="F23" t="n">
-        <v>781.4164467146857</v>
+        <v>781.4164467146848</v>
       </c>
       <c r="G23" t="n">
-        <v>380.9635037122162</v>
+        <v>380.9635037122156</v>
       </c>
       <c r="H23" t="n">
         <v>101.5101872183921</v>
@@ -5992,25 +5992,25 @@
         <v>215.4049024871879</v>
       </c>
       <c r="K23" t="n">
-        <v>333.2063994690244</v>
+        <v>1167.556691427202</v>
       </c>
       <c r="L23" t="n">
-        <v>1554.409539448768</v>
+        <v>2388.759831406946</v>
       </c>
       <c r="M23" t="n">
-        <v>2810.59810627637</v>
+        <v>2551.372270953044</v>
       </c>
       <c r="N23" t="n">
-        <v>3647.942615081272</v>
+        <v>2716.615949777068</v>
       </c>
       <c r="O23" t="n">
-        <v>4784.157201806043</v>
+        <v>3852.830536501838</v>
       </c>
       <c r="P23" t="n">
-        <v>4917.329396162414</v>
+        <v>4814.312605691605</v>
       </c>
       <c r="Q23" t="n">
-        <v>5017.336168031933</v>
+        <v>5017.336168031932</v>
       </c>
       <c r="R23" t="n">
         <v>5075.509360919606</v>
@@ -6019,22 +6019,22 @@
         <v>5013.389130932049</v>
       </c>
       <c r="T23" t="n">
-        <v>4797.458152663441</v>
+        <v>4797.45815266344</v>
       </c>
       <c r="U23" t="n">
-        <v>4538.311441050399</v>
+        <v>4538.311441050398</v>
       </c>
       <c r="V23" t="n">
-        <v>4175.694490984225</v>
+        <v>4175.694490984224</v>
       </c>
       <c r="W23" t="n">
-        <v>3770.839036395259</v>
+        <v>3770.839036395258</v>
       </c>
       <c r="X23" t="n">
-        <v>3351.696572974569</v>
+        <v>3351.696572974568</v>
       </c>
       <c r="Y23" t="n">
-        <v>2943.410449274223</v>
+        <v>2943.410449274222</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>516.0059452745651</v>
       </c>
       <c r="K24" t="n">
-        <v>596.018201384412</v>
+        <v>962.1968170737883</v>
       </c>
       <c r="L24" t="n">
-        <v>703.6045538497941</v>
+        <v>1069.783169539171</v>
       </c>
       <c r="M24" t="n">
-        <v>829.1527526564829</v>
+        <v>1195.331368345859</v>
       </c>
       <c r="N24" t="n">
-        <v>958.0238387052597</v>
+        <v>1324.202454394636</v>
       </c>
       <c r="O24" t="n">
-        <v>1075.915705429622</v>
+        <v>1442.094321118999</v>
       </c>
       <c r="P24" t="n">
-        <v>1170.53432200649</v>
+        <v>1536.712937695866</v>
       </c>
       <c r="Q24" t="n">
         <v>1599.962977129307</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2380.652373314537</v>
+        <v>922.0998328738581</v>
       </c>
       <c r="C26" t="n">
-        <v>1942.50990049796</v>
+        <v>922.0998328738581</v>
       </c>
       <c r="D26" t="n">
-        <v>1506.600115672405</v>
+        <v>922.0998328738581</v>
       </c>
       <c r="E26" t="n">
-        <v>1072.8253708307</v>
+        <v>488.3250880321533</v>
       </c>
       <c r="F26" t="n">
-        <v>644.9579412399075</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="G26" t="n">
-        <v>244.5049982374383</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="H26" t="n">
         <v>60.45765844136105</v>
@@ -6253,25 +6253,25 @@
         <v>3022.882922068053</v>
       </c>
       <c r="S26" t="n">
-        <v>3022.882922068053</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="T26" t="n">
-        <v>2806.951943799445</v>
+        <v>2744.831713811887</v>
       </c>
       <c r="U26" t="n">
-        <v>2806.951943799445</v>
+        <v>2485.685002198846</v>
       </c>
       <c r="V26" t="n">
-        <v>2806.951943799445</v>
+        <v>2123.068052132672</v>
       </c>
       <c r="W26" t="n">
-        <v>2806.951943799445</v>
+        <v>1749.528419994894</v>
       </c>
       <c r="X26" t="n">
-        <v>2806.951943799445</v>
+        <v>1330.385956574205</v>
       </c>
       <c r="Y26" t="n">
-        <v>2806.951943799445</v>
+        <v>922.0998328738581</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.45765844136105</v>
       </c>
       <c r="I27" t="n">
-        <v>103.5812824523035</v>
+        <v>77.51760929184586</v>
       </c>
       <c r="J27" t="n">
-        <v>300.3930935548346</v>
+        <v>448.8897433370764</v>
       </c>
       <c r="K27" t="n">
-        <v>380.4053496646816</v>
+        <v>528.9019994469234</v>
       </c>
       <c r="L27" t="n">
-        <v>487.9917021300637</v>
+        <v>636.4883519123055</v>
       </c>
       <c r="M27" t="n">
-        <v>613.5399009367525</v>
+        <v>762.0365507189942</v>
       </c>
       <c r="N27" t="n">
-        <v>742.4109869855292</v>
+        <v>890.907636767771</v>
       </c>
       <c r="O27" t="n">
-        <v>860.3028537098921</v>
+        <v>1008.799503492134</v>
       </c>
       <c r="P27" t="n">
-        <v>954.9214702867594</v>
+        <v>1103.418120069001</v>
       </c>
       <c r="Q27" t="n">
-        <v>1558.910448352276</v>
+        <v>1676.083226446615</v>
       </c>
       <c r="R27" t="n">
         <v>1706.847642273299</v>
@@ -6363,19 +6363,19 @@
         <v>1122.577455746642</v>
       </c>
       <c r="C28" t="n">
-        <v>950.0157442298668</v>
+        <v>950.0157442298664</v>
       </c>
       <c r="D28" t="n">
-        <v>784.1377514313895</v>
+        <v>784.137751431389</v>
       </c>
       <c r="E28" t="n">
-        <v>614.3797476821267</v>
+        <v>614.379747682126</v>
       </c>
       <c r="F28" t="n">
-        <v>437.6726936438829</v>
+        <v>437.6726936438823</v>
       </c>
       <c r="G28" t="n">
-        <v>272.5052630654623</v>
+        <v>272.5052630654618</v>
       </c>
       <c r="H28" t="n">
         <v>136.3714507471598</v>
@@ -6390,7 +6390,7 @@
         <v>499.4283541365518</v>
       </c>
       <c r="L28" t="n">
-        <v>979.3983575253458</v>
+        <v>913.341749860475</v>
       </c>
       <c r="M28" t="n">
         <v>1437.943005882529</v>
@@ -6399,7 +6399,7 @@
         <v>1943.770851919193</v>
       </c>
       <c r="O28" t="n">
-        <v>2422.156401191489</v>
+        <v>2422.15640119149</v>
       </c>
       <c r="P28" t="n">
         <v>2819.905233405904</v>
@@ -6420,13 +6420,13 @@
         <v>2346.189412361386</v>
       </c>
       <c r="V28" t="n">
-        <v>2059.233904231817</v>
+        <v>2059.233904231816</v>
       </c>
       <c r="W28" t="n">
         <v>1787.207499818108</v>
       </c>
       <c r="X28" t="n">
-        <v>1541.815745151521</v>
+        <v>1541.81574515152</v>
       </c>
       <c r="Y28" t="n">
         <v>1314.396074465629</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2075.605407009814</v>
+        <v>1334.962859085962</v>
       </c>
       <c r="C29" t="n">
-        <v>1637.462934193237</v>
+        <v>896.8203862693858</v>
       </c>
       <c r="D29" t="n">
-        <v>1201.553149367682</v>
+        <v>460.9106014438303</v>
       </c>
       <c r="E29" t="n">
-        <v>767.7784045259768</v>
+        <v>460.9106014438303</v>
       </c>
       <c r="F29" t="n">
-        <v>339.9109749351845</v>
+        <v>460.9106014438303</v>
       </c>
       <c r="G29" t="n">
-        <v>339.9109749351845</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="H29" t="n">
         <v>60.45765844136105</v>
@@ -6466,19 +6466,19 @@
         <v>609.6070611630748</v>
       </c>
       <c r="K29" t="n">
-        <v>1357.770584374918</v>
+        <v>770.8523711358966</v>
       </c>
       <c r="L29" t="n">
-        <v>1531.986873718252</v>
+        <v>916.9955448627809</v>
       </c>
       <c r="M29" t="n">
-        <v>1694.59931326435</v>
+        <v>1079.607984408878</v>
       </c>
       <c r="N29" t="n">
-        <v>1859.842992088374</v>
+        <v>1244.851663232903</v>
       </c>
       <c r="O29" t="n">
-        <v>2015.877912242838</v>
+        <v>1400.886583387367</v>
       </c>
       <c r="P29" t="n">
         <v>2149.05010659921</v>
@@ -6490,25 +6490,25 @@
         <v>3022.882922068053</v>
       </c>
       <c r="S29" t="n">
-        <v>3022.882922068053</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="T29" t="n">
-        <v>2806.951943799445</v>
+        <v>2744.831713811887</v>
       </c>
       <c r="U29" t="n">
-        <v>2547.805232186403</v>
+        <v>2485.685002198846</v>
       </c>
       <c r="V29" t="n">
-        <v>2480.460861598781</v>
+        <v>2123.068052132672</v>
       </c>
       <c r="W29" t="n">
-        <v>2075.605407009814</v>
+        <v>1718.212597543705</v>
       </c>
       <c r="X29" t="n">
-        <v>2075.605407009814</v>
+        <v>1718.212597543705</v>
       </c>
       <c r="Y29" t="n">
-        <v>2075.605407009814</v>
+        <v>1334.962859085962</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>77.51760929184586</v>
       </c>
       <c r="J30" t="n">
-        <v>417.5658716491744</v>
+        <v>448.8897433370764</v>
       </c>
       <c r="K30" t="n">
-        <v>497.5781277590214</v>
+        <v>528.9019994469234</v>
       </c>
       <c r="L30" t="n">
-        <v>605.1644802244035</v>
+        <v>636.4883519123055</v>
       </c>
       <c r="M30" t="n">
-        <v>730.7126790310923</v>
+        <v>762.0365507189942</v>
       </c>
       <c r="N30" t="n">
-        <v>859.5837650798691</v>
+        <v>890.907636767771</v>
       </c>
       <c r="O30" t="n">
-        <v>977.475631804232</v>
+        <v>1008.799503492134</v>
       </c>
       <c r="P30" t="n">
-        <v>1072.094248381099</v>
+        <v>1103.418120069001</v>
       </c>
       <c r="Q30" t="n">
         <v>1676.083226446615</v>
@@ -6621,13 +6621,13 @@
         <v>60.45765844136105</v>
       </c>
       <c r="J31" t="n">
-        <v>110.3502153251359</v>
+        <v>110.3502153251363</v>
       </c>
       <c r="K31" t="n">
-        <v>433.3717464716807</v>
+        <v>433.3717464716811</v>
       </c>
       <c r="L31" t="n">
-        <v>913.3417498604746</v>
+        <v>913.341749860475</v>
       </c>
       <c r="M31" t="n">
         <v>1437.943005882529</v>
@@ -6636,10 +6636,10 @@
         <v>1943.770851919193</v>
       </c>
       <c r="O31" t="n">
-        <v>2422.156401191489</v>
+        <v>2422.15640119149</v>
       </c>
       <c r="P31" t="n">
-        <v>2819.905233405903</v>
+        <v>2819.905233405904</v>
       </c>
       <c r="Q31" t="n">
         <v>3022.882922068052</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2476.058350012283</v>
+        <v>1614.416175579786</v>
       </c>
       <c r="C32" t="n">
-        <v>2037.915877195707</v>
+        <v>1176.273702763209</v>
       </c>
       <c r="D32" t="n">
-        <v>1602.006092370151</v>
+        <v>740.3639179376538</v>
       </c>
       <c r="E32" t="n">
-        <v>1168.231347528446</v>
+        <v>740.3639179376538</v>
       </c>
       <c r="F32" t="n">
         <v>740.3639179376538</v>
@@ -6700,19 +6700,19 @@
         <v>95.75205882586977</v>
       </c>
       <c r="J32" t="n">
-        <v>609.6070611630748</v>
+        <v>174.3523737101569</v>
       </c>
       <c r="K32" t="n">
-        <v>770.8523711358966</v>
+        <v>292.1538706919933</v>
       </c>
       <c r="L32" t="n">
-        <v>916.9955448627809</v>
+        <v>438.2970444188775</v>
       </c>
       <c r="M32" t="n">
-        <v>1079.607984408878</v>
+        <v>600.9094839649748</v>
       </c>
       <c r="N32" t="n">
-        <v>1244.851663232903</v>
+        <v>766.1531627889996</v>
       </c>
       <c r="O32" t="n">
         <v>1400.886583387367</v>
@@ -6736,16 +6736,16 @@
         <v>2485.685002198846</v>
       </c>
       <c r="V32" t="n">
-        <v>2476.058350012283</v>
+        <v>2123.068052132672</v>
       </c>
       <c r="W32" t="n">
-        <v>2476.058350012283</v>
+        <v>1718.212597543705</v>
       </c>
       <c r="X32" t="n">
-        <v>2476.058350012283</v>
+        <v>1614.416175579786</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.058350012283</v>
+        <v>1614.416175579786</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>474.953416497534</v>
       </c>
       <c r="K33" t="n">
-        <v>554.965672607381</v>
+        <v>554.9656726073808</v>
       </c>
       <c r="L33" t="n">
-        <v>662.5520250727632</v>
+        <v>662.5520250727631</v>
       </c>
       <c r="M33" t="n">
-        <v>788.1002238794518</v>
+        <v>788.1002238794517</v>
       </c>
       <c r="N33" t="n">
-        <v>916.9713099282287</v>
+        <v>916.9713099282286</v>
       </c>
       <c r="O33" t="n">
-        <v>1034.863176652592</v>
+        <v>1034.863176652591</v>
       </c>
       <c r="P33" t="n">
         <v>1129.481793229459</v>
@@ -6861,22 +6861,22 @@
         <v>176.406822990007</v>
       </c>
       <c r="K34" t="n">
-        <v>433.3717464716803</v>
+        <v>499.4283541365518</v>
       </c>
       <c r="L34" t="n">
-        <v>913.3417498604741</v>
+        <v>979.3983575253457</v>
       </c>
       <c r="M34" t="n">
-        <v>1437.943005882528</v>
+        <v>1503.9996135474</v>
       </c>
       <c r="N34" t="n">
-        <v>1943.770851919192</v>
+        <v>2009.827459584063</v>
       </c>
       <c r="O34" t="n">
-        <v>2422.156401191489</v>
+        <v>2488.213008856359</v>
       </c>
       <c r="P34" t="n">
-        <v>2819.905233405903</v>
+        <v>2885.961841070774</v>
       </c>
       <c r="Q34" t="n">
         <v>3022.882922068052</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1796.15209051599</v>
+        <v>1613.179968659396</v>
       </c>
       <c r="C35" t="n">
-        <v>1358.009617699414</v>
+        <v>1175.03749584282</v>
       </c>
       <c r="D35" t="n">
-        <v>922.0998328738581</v>
+        <v>739.1277110172641</v>
       </c>
       <c r="E35" t="n">
-        <v>488.3250880321533</v>
+        <v>305.3529661755593</v>
       </c>
       <c r="F35" t="n">
-        <v>60.45765844136105</v>
+        <v>305.3529661755593</v>
       </c>
       <c r="G35" t="n">
         <v>60.45765844136105</v>
@@ -6937,28 +6937,28 @@
         <v>95.75205882586977</v>
       </c>
       <c r="J35" t="n">
-        <v>609.6070611630748</v>
+        <v>174.3523737101569</v>
       </c>
       <c r="K35" t="n">
-        <v>727.4085581449112</v>
+        <v>292.1538706919933</v>
       </c>
       <c r="L35" t="n">
-        <v>873.5517318717955</v>
+        <v>438.2970444188775</v>
       </c>
       <c r="M35" t="n">
-        <v>1036.164171417893</v>
+        <v>600.9094839649748</v>
       </c>
       <c r="N35" t="n">
-        <v>1784.327694629736</v>
+        <v>766.1531627889996</v>
       </c>
       <c r="O35" t="n">
-        <v>1940.3626147842</v>
+        <v>1514.316686000843</v>
       </c>
       <c r="P35" t="n">
-        <v>2149.05010659921</v>
+        <v>2262.480209212685</v>
       </c>
       <c r="Q35" t="n">
-        <v>2795.555664427323</v>
+        <v>2908.985767040799</v>
       </c>
       <c r="R35" t="n">
         <v>3022.882922068053</v>
@@ -6967,22 +6967,22 @@
         <v>3022.882922068053</v>
       </c>
       <c r="T35" t="n">
-        <v>3022.882922068053</v>
+        <v>2806.951943799445</v>
       </c>
       <c r="U35" t="n">
-        <v>3022.882922068053</v>
+        <v>2806.951943799445</v>
       </c>
       <c r="V35" t="n">
-        <v>3022.882922068053</v>
+        <v>2444.334993733271</v>
       </c>
       <c r="W35" t="n">
-        <v>3022.882922068053</v>
+        <v>2039.479539144304</v>
       </c>
       <c r="X35" t="n">
-        <v>2630.737784701245</v>
+        <v>2039.479539144304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2222.451661000898</v>
+        <v>2039.479539144304</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1122.577455746641</v>
+        <v>1122.577455746642</v>
       </c>
       <c r="C37" t="n">
-        <v>950.0157442298658</v>
+        <v>950.0157442298664</v>
       </c>
       <c r="D37" t="n">
-        <v>784.1377514313886</v>
+        <v>784.137751431389</v>
       </c>
       <c r="E37" t="n">
-        <v>614.3797476821259</v>
+        <v>614.3797476821264</v>
       </c>
       <c r="F37" t="n">
-        <v>437.6726936438821</v>
+        <v>437.6726936438828</v>
       </c>
       <c r="G37" t="n">
-        <v>272.5052630654618</v>
+        <v>272.5052630654625</v>
       </c>
       <c r="H37" t="n">
-        <v>136.3714507471598</v>
+        <v>136.37145074716</v>
       </c>
       <c r="I37" t="n">
         <v>60.45765844136105</v>
@@ -7104,16 +7104,16 @@
         <v>979.3983575253457</v>
       </c>
       <c r="M37" t="n">
-        <v>1437.943005882529</v>
+        <v>1503.9996135474</v>
       </c>
       <c r="N37" t="n">
-        <v>1943.770851919193</v>
+        <v>2009.827459584063</v>
       </c>
       <c r="O37" t="n">
-        <v>2422.15640119149</v>
+        <v>2488.213008856359</v>
       </c>
       <c r="P37" t="n">
-        <v>2819.905233405904</v>
+        <v>2885.961841070774</v>
       </c>
       <c r="Q37" t="n">
         <v>3022.882922068053</v>
@@ -7128,19 +7128,19 @@
         <v>2624.599294323058</v>
       </c>
       <c r="U37" t="n">
-        <v>2346.189412361385</v>
+        <v>2346.189412361386</v>
       </c>
       <c r="V37" t="n">
         <v>2059.233904231816</v>
       </c>
       <c r="W37" t="n">
-        <v>1787.207499818107</v>
+        <v>1787.207499818108</v>
       </c>
       <c r="X37" t="n">
         <v>1541.81574515152</v>
       </c>
       <c r="Y37" t="n">
-        <v>1314.396074465628</v>
+        <v>1314.396074465629</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2196.60503351846</v>
+        <v>1213.963232577317</v>
       </c>
       <c r="C38" t="n">
-        <v>1758.462560701883</v>
+        <v>775.82075976074</v>
       </c>
       <c r="D38" t="n">
-        <v>1322.552775876327</v>
+        <v>339.9109749351845</v>
       </c>
       <c r="E38" t="n">
-        <v>888.7780310346226</v>
+        <v>339.9109749351845</v>
       </c>
       <c r="F38" t="n">
-        <v>460.9106014438303</v>
+        <v>339.9109749351845</v>
       </c>
       <c r="G38" t="n">
-        <v>60.45765844136106</v>
+        <v>339.9109749351845</v>
       </c>
       <c r="H38" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I38" t="n">
         <v>95.75205882586977</v>
@@ -7177,16 +7177,16 @@
         <v>609.6070611630748</v>
       </c>
       <c r="K38" t="n">
-        <v>727.4085581449112</v>
+        <v>770.8523711358966</v>
       </c>
       <c r="L38" t="n">
-        <v>873.5517318717955</v>
+        <v>916.9955448627809</v>
       </c>
       <c r="M38" t="n">
-        <v>1036.164171417893</v>
+        <v>1079.607984408878</v>
       </c>
       <c r="N38" t="n">
-        <v>1201.407850241917</v>
+        <v>1244.851663232903</v>
       </c>
       <c r="O38" t="n">
         <v>1400.886583387367</v>
@@ -7195,31 +7195,31 @@
         <v>2149.05010659921</v>
       </c>
       <c r="Q38" t="n">
-        <v>2795.555664427324</v>
+        <v>2795.555664427323</v>
       </c>
       <c r="R38" t="n">
         <v>3022.882922068053</v>
       </c>
       <c r="S38" t="n">
-        <v>3022.882922068053</v>
+        <v>2960.762692080496</v>
       </c>
       <c r="T38" t="n">
-        <v>3022.882922068053</v>
+        <v>2744.831713811887</v>
       </c>
       <c r="U38" t="n">
-        <v>3022.882922068053</v>
+        <v>2485.685002198846</v>
       </c>
       <c r="V38" t="n">
-        <v>3020.602951528115</v>
+        <v>2123.068052132672</v>
       </c>
       <c r="W38" t="n">
-        <v>2615.747496939149</v>
+        <v>2041.391819698352</v>
       </c>
       <c r="X38" t="n">
-        <v>2196.60503351846</v>
+        <v>1622.249356277663</v>
       </c>
       <c r="Y38" t="n">
-        <v>2196.60503351846</v>
+        <v>1213.963232577317</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>182.1901966898112</v>
       </c>
       <c r="G39" t="n">
-        <v>97.3106668064342</v>
+        <v>97.31066680643418</v>
       </c>
       <c r="H39" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I39" t="n">
         <v>103.5812824523035</v>
@@ -7311,25 +7311,25 @@
         <v>1122.577455746642</v>
       </c>
       <c r="C40" t="n">
-        <v>950.0157442298672</v>
+        <v>950.0157442298664</v>
       </c>
       <c r="D40" t="n">
-        <v>784.1377514313899</v>
+        <v>784.137751431389</v>
       </c>
       <c r="E40" t="n">
-        <v>614.3797476821271</v>
+        <v>614.379747682126</v>
       </c>
       <c r="F40" t="n">
-        <v>437.6726936438833</v>
+        <v>437.6726936438823</v>
       </c>
       <c r="G40" t="n">
-        <v>272.5052630654627</v>
+        <v>272.5052630654618</v>
       </c>
       <c r="H40" t="n">
         <v>136.3714507471598</v>
       </c>
       <c r="I40" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="J40" t="n">
         <v>176.406822990007</v>
@@ -7338,19 +7338,19 @@
         <v>499.4283541365518</v>
       </c>
       <c r="L40" t="n">
-        <v>979.3983575253458</v>
+        <v>979.3983575253457</v>
       </c>
       <c r="M40" t="n">
-        <v>1503.9996135474</v>
+        <v>1437.943005882529</v>
       </c>
       <c r="N40" t="n">
-        <v>2009.827459584063</v>
+        <v>1943.770851919193</v>
       </c>
       <c r="O40" t="n">
-        <v>2488.21300885636</v>
+        <v>2422.15640119149</v>
       </c>
       <c r="P40" t="n">
-        <v>2885.961841070774</v>
+        <v>2819.905233405904</v>
       </c>
       <c r="Q40" t="n">
         <v>3022.882922068053</v>
@@ -7359,22 +7359,22 @@
         <v>3020.522686058786</v>
       </c>
       <c r="S40" t="n">
-        <v>2868.667769235481</v>
+        <v>2868.66776923548</v>
       </c>
       <c r="T40" t="n">
-        <v>2624.599294323059</v>
+        <v>2624.599294323058</v>
       </c>
       <c r="U40" t="n">
-        <v>2346.189412361387</v>
+        <v>2346.189412361386</v>
       </c>
       <c r="V40" t="n">
-        <v>2059.233904231817</v>
+        <v>2059.233904231816</v>
       </c>
       <c r="W40" t="n">
-        <v>1787.207499818109</v>
+        <v>1787.207499818108</v>
       </c>
       <c r="X40" t="n">
-        <v>1541.815745151521</v>
+        <v>1541.81574515152</v>
       </c>
       <c r="Y40" t="n">
         <v>1314.396074465629</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1979.523356678409</v>
+        <v>2040.148565186728</v>
       </c>
       <c r="C41" t="n">
-        <v>1541.380883861832</v>
+        <v>1602.006092370151</v>
       </c>
       <c r="D41" t="n">
-        <v>1105.471099036277</v>
+        <v>1602.006092370151</v>
       </c>
       <c r="E41" t="n">
-        <v>671.696354194572</v>
+        <v>1168.231347528446</v>
       </c>
       <c r="F41" t="n">
-        <v>243.8289246037797</v>
+        <v>740.3639179376538</v>
       </c>
       <c r="G41" t="n">
-        <v>243.8289246037797</v>
+        <v>339.9109749351845</v>
       </c>
       <c r="H41" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I41" t="n">
         <v>95.75205882586977</v>
       </c>
       <c r="J41" t="n">
-        <v>609.6070611630748</v>
+        <v>174.3523737101569</v>
       </c>
       <c r="K41" t="n">
-        <v>727.4085581449112</v>
+        <v>922.5158969219999</v>
       </c>
       <c r="L41" t="n">
-        <v>873.5517318717955</v>
+        <v>1068.659070648884</v>
       </c>
       <c r="M41" t="n">
-        <v>1036.164171417893</v>
+        <v>1231.271510194982</v>
       </c>
       <c r="N41" t="n">
-        <v>1201.407850241917</v>
+        <v>1396.515189019006</v>
       </c>
       <c r="O41" t="n">
-        <v>1400.886583387367</v>
+        <v>2116.539434099018</v>
       </c>
       <c r="P41" t="n">
-        <v>2149.05010659921</v>
+        <v>2864.702957310862</v>
       </c>
       <c r="Q41" t="n">
-        <v>2795.555664427324</v>
+        <v>2964.70972918038</v>
       </c>
       <c r="R41" t="n">
         <v>3022.882922068053</v>
@@ -7453,10 +7453,10 @@
         <v>2806.951943799445</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.809480378756</v>
+        <v>2806.951943799445</v>
       </c>
       <c r="Y41" t="n">
-        <v>1979.523356678409</v>
+        <v>2398.665820099098</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1877.276479558255</v>
+        <v>561.2411997635004</v>
       </c>
       <c r="C42" t="n">
-        <v>1770.820018394897</v>
+        <v>454.7847386001426</v>
       </c>
       <c r="D42" t="n">
-        <v>1675.72972954145</v>
+        <v>359.6944497466959</v>
       </c>
       <c r="E42" t="n">
-        <v>1581.609314868404</v>
+        <v>265.5740350736496</v>
       </c>
       <c r="F42" t="n">
-        <v>1498.225476484566</v>
+        <v>182.1901966898112</v>
       </c>
       <c r="G42" t="n">
-        <v>1413.345946601189</v>
+        <v>97.31066680643418</v>
       </c>
       <c r="H42" t="n">
-        <v>1376.492938236116</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I42" t="n">
-        <v>1419.616562247058</v>
+        <v>103.5812824523035</v>
       </c>
       <c r="J42" t="n">
-        <v>1790.988696292289</v>
+        <v>474.953416497534</v>
       </c>
       <c r="K42" t="n">
-        <v>1871.000952402135</v>
+        <v>554.9656726073808</v>
       </c>
       <c r="L42" t="n">
-        <v>1978.587304867518</v>
+        <v>662.5520250727631</v>
       </c>
       <c r="M42" t="n">
-        <v>2104.135503674207</v>
+        <v>788.1002238794517</v>
       </c>
       <c r="N42" t="n">
-        <v>2233.006589722983</v>
+        <v>916.9713099282286</v>
       </c>
       <c r="O42" t="n">
-        <v>2350.898456447347</v>
+        <v>1034.863176652591</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.517073024213</v>
+        <v>1129.481793229459</v>
       </c>
       <c r="Q42" t="n">
-        <v>2874.94572814703</v>
+        <v>1558.910448352276</v>
       </c>
       <c r="R42" t="n">
-        <v>3022.882922068053</v>
+        <v>1706.847642273299</v>
       </c>
       <c r="S42" t="n">
-        <v>2968.818037001566</v>
+        <v>1652.782757206811</v>
       </c>
       <c r="T42" t="n">
-        <v>2840.677154308279</v>
+        <v>1524.641874513525</v>
       </c>
       <c r="U42" t="n">
-        <v>2664.373867824724</v>
+        <v>1348.33858802997</v>
       </c>
       <c r="V42" t="n">
-        <v>2465.256349886723</v>
+        <v>1149.221070091969</v>
       </c>
       <c r="W42" t="n">
-        <v>2279.933595619917</v>
+        <v>963.8983158251629</v>
       </c>
       <c r="X42" t="n">
-        <v>2125.066159858797</v>
+        <v>809.0308800640428</v>
       </c>
       <c r="Y42" t="n">
-        <v>1998.580380638018</v>
+        <v>682.5451008432635</v>
       </c>
     </row>
     <row r="43">
@@ -7566,7 +7566,7 @@
         <v>136.3714507471598</v>
       </c>
       <c r="I43" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="J43" t="n">
         <v>110.3502153251363</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2177.440888162456</v>
+        <v>1796.15209051599</v>
       </c>
       <c r="C44" t="n">
-        <v>1739.29841534588</v>
+        <v>1358.009617699414</v>
       </c>
       <c r="D44" t="n">
-        <v>1303.388630520324</v>
+        <v>922.0998328738581</v>
       </c>
       <c r="E44" t="n">
-        <v>869.6138856786192</v>
+        <v>488.3250880321533</v>
       </c>
       <c r="F44" t="n">
-        <v>441.746456087827</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="G44" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="H44" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I44" t="n">
         <v>95.75205882586977</v>
@@ -7651,25 +7651,25 @@
         <v>174.3523737101569</v>
       </c>
       <c r="K44" t="n">
-        <v>292.1538706919933</v>
+        <v>922.5158969219999</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.317393903836</v>
+        <v>1670.679420133843</v>
       </c>
       <c r="M44" t="n">
-        <v>1658.178254835127</v>
+        <v>1833.29185967994</v>
       </c>
       <c r="N44" t="n">
-        <v>2406.34177804697</v>
+        <v>1998.535538503965</v>
       </c>
       <c r="O44" t="n">
-        <v>2562.376698201434</v>
+        <v>2154.570458658429</v>
       </c>
       <c r="P44" t="n">
-        <v>2695.548892557805</v>
+        <v>2864.702957310862</v>
       </c>
       <c r="Q44" t="n">
-        <v>2795.555664427324</v>
+        <v>2964.70972918038</v>
       </c>
       <c r="R44" t="n">
         <v>3022.882922068053</v>
@@ -7684,16 +7684,16 @@
         <v>3022.882922068053</v>
       </c>
       <c r="V44" t="n">
-        <v>3022.882922068053</v>
+        <v>2660.265972001879</v>
       </c>
       <c r="W44" t="n">
-        <v>3022.882922068053</v>
+        <v>2255.410517412913</v>
       </c>
       <c r="X44" t="n">
-        <v>2603.740458647364</v>
+        <v>2255.410517412913</v>
       </c>
       <c r="Y44" t="n">
-        <v>2603.740458647364</v>
+        <v>1847.124393712566</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>182.1901966898112</v>
       </c>
       <c r="G45" t="n">
-        <v>97.3106668064342</v>
+        <v>97.31066680643418</v>
       </c>
       <c r="H45" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="I45" t="n">
-        <v>103.5812824523035</v>
+        <v>77.51760929184586</v>
       </c>
       <c r="J45" t="n">
-        <v>474.953416497534</v>
+        <v>124.3314183708641</v>
       </c>
       <c r="K45" t="n">
-        <v>554.9656726073808</v>
+        <v>497.5781277590214</v>
       </c>
       <c r="L45" t="n">
-        <v>662.5520250727631</v>
+        <v>605.1644802244035</v>
       </c>
       <c r="M45" t="n">
-        <v>788.1002238794517</v>
+        <v>730.7126790310923</v>
       </c>
       <c r="N45" t="n">
-        <v>916.9713099282286</v>
+        <v>859.5837650798691</v>
       </c>
       <c r="O45" t="n">
-        <v>1034.863176652591</v>
+        <v>977.475631804232</v>
       </c>
       <c r="P45" t="n">
-        <v>1129.481793229459</v>
+        <v>1072.094248381099</v>
       </c>
       <c r="Q45" t="n">
-        <v>1558.910448352276</v>
+        <v>1676.083226446615</v>
       </c>
       <c r="R45" t="n">
         <v>1706.847642273299</v>
@@ -7782,55 +7782,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1122.577455746641</v>
+        <v>1122.577455746642</v>
       </c>
       <c r="C46" t="n">
-        <v>950.0157442298663</v>
+        <v>950.0157442298668</v>
       </c>
       <c r="D46" t="n">
-        <v>784.137751431389</v>
+        <v>784.1377514313895</v>
       </c>
       <c r="E46" t="n">
-        <v>614.3797476821263</v>
+        <v>614.3797476821267</v>
       </c>
       <c r="F46" t="n">
-        <v>437.6726936438826</v>
+        <v>437.6726936438829</v>
       </c>
       <c r="G46" t="n">
-        <v>272.5052630654623</v>
+        <v>272.5052630654626</v>
       </c>
       <c r="H46" t="n">
-        <v>136.3714507471598</v>
+        <v>136.3714507471601</v>
       </c>
       <c r="I46" t="n">
-        <v>60.45765844136106</v>
+        <v>60.45765844136105</v>
       </c>
       <c r="J46" t="n">
-        <v>110.3502153251357</v>
+        <v>176.406822990007</v>
       </c>
       <c r="K46" t="n">
-        <v>433.3717464716806</v>
+        <v>499.4283541365518</v>
       </c>
       <c r="L46" t="n">
-        <v>913.3417498604745</v>
+        <v>979.3983575253457</v>
       </c>
       <c r="M46" t="n">
-        <v>1437.943005882528</v>
+        <v>1437.943005882529</v>
       </c>
       <c r="N46" t="n">
-        <v>1943.770851919192</v>
+        <v>1943.770851919193</v>
       </c>
       <c r="O46" t="n">
-        <v>2422.156401191489</v>
+        <v>2422.15640119149</v>
       </c>
       <c r="P46" t="n">
-        <v>2819.905233405903</v>
+        <v>2819.905233405904</v>
       </c>
       <c r="Q46" t="n">
-        <v>3022.882922068052</v>
+        <v>3022.882922068053</v>
       </c>
       <c r="R46" t="n">
-        <v>3020.522686058785</v>
+        <v>3020.522686058786</v>
       </c>
       <c r="S46" t="n">
         <v>2868.66776923548</v>
@@ -7842,13 +7842,13 @@
         <v>2346.189412361386</v>
       </c>
       <c r="V46" t="n">
-        <v>2059.233904231816</v>
+        <v>2059.233904231817</v>
       </c>
       <c r="W46" t="n">
         <v>1787.207499818108</v>
       </c>
       <c r="X46" t="n">
-        <v>1541.81574515152</v>
+        <v>1541.815745151521</v>
       </c>
       <c r="Y46" t="n">
         <v>1314.396074465629</v>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,16 +8768,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>647.0476472186474</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>50.6664342516442</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>369.8773895852287</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.73038131294952</v>
+        <v>20.73038131294872</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>43.88263938483379</v>
+        <v>43.88263938483374</v>
       </c>
       <c r="P14" t="n">
-        <v>621.2033624802742</v>
+        <v>621.2033624802741</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,25 +9008,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>369.8773895852287</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9105,7 +9105,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.1678456560217</v>
+        <v>103.1678456560226</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>43.88263938483379</v>
+        <v>598.1097000579587</v>
       </c>
       <c r="P17" t="n">
-        <v>621.2033624802742</v>
+        <v>66.97630180714941</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>151.5131333570837</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>369.8773895852287</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.73038131294813</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>103.1678456560226</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>66.97630180714918</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>598.1097000579587</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>66.97630180714941</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.73038131294858</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -9567,7 +9567,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>397.4012722384268</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -9640,25 +9640,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1104.622350789399</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>678.8897272534118</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>104.0573641119272</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>369.8773895852287</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>369.8773895852287</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.5131333570837</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>514.5606736809837</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>355.7103778819095</v>
       </c>
       <c r="M28" t="n">
-        <v>397.4012722384264</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10114,10 +10114,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>636.7293194242491</v>
+        <v>43.88263938483374</v>
       </c>
       <c r="L29" t="n">
-        <v>28.35668244085878</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>621.2033624802741</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>296.1964174528387</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>514.5606736809837</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.73038131294827</v>
+        <v>20.73038131294872</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>43.88263938483374</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>483.5338388322257</v>
       </c>
       <c r="P32" t="n">
-        <v>621.2033624802742</v>
+        <v>621.2033624802741</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>369.8773895852282</v>
+        <v>369.8773895852287</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10509,7 +10509,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>210.8099463699637</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>103.1678456560221</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>588.807923624059</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>598.1097000579587</v>
       </c>
       <c r="P35" t="n">
-        <v>76.27807824104889</v>
+        <v>621.2033624802739</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>56.28683044402169</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10752,7 +10752,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>397.4012722384268</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>103.1678456560226</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>43.88263938483374</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>43.88263938483419</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>621.2033624802742</v>
+        <v>621.2033624802741</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10989,7 +10989,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>397.4012722384268</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.1678456560223</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>636.7293194242492</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>43.88263938483425</v>
+        <v>569.6861867934831</v>
       </c>
       <c r="P41" t="n">
-        <v>621.2033624802742</v>
+        <v>621.2033624802743</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.8773895852286</v>
+        <v>369.8773895852287</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.73038131294871</v>
+        <v>20.73038131294872</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>636.7293194242492</v>
       </c>
       <c r="L44" t="n">
-        <v>608.1013631161202</v>
+        <v>608.10136311612</v>
       </c>
       <c r="M44" t="n">
-        <v>459.8468902880738</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>588.807923624059</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>582.7881861576375</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>296.1964174528387</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.8773895852287</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.73038131294812</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11463,7 +11463,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>397.4012722384268</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>427.5006617250921</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>263.521295522874</v>
       </c>
     </row>
     <row r="3">
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>90.92021546249573</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>23.24266966285529</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>183.3681251452457</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>135.0797604404443</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>190.9286964644654</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.8089091985634</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>266.1834802232481</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444081</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>70.12329515209638</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>337.3481168994326</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>276.6587833288852</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>61.4990276876818</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.7716684859222</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5552444969113</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>384.762059413368</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.4484135724446</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>276.6587833288852</v>
@@ -23548,10 +23548,10 @@
         <v>61.4990276876818</v>
       </c>
       <c r="T14" t="n">
-        <v>213.7716684859222</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>197.4549478238996</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>35.02674006031788</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>217.2371458434772</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.4990276876818</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.7716684859222</v>
       </c>
       <c r="U17" t="n">
-        <v>256.5552444969113</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H20" t="n">
-        <v>191.6554388286064</v>
+        <v>276.6587833288852</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>61.4990276876818</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>213.7716684859222</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.5552444969113</v>
+        <v>154.3500310005144</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H26" t="n">
-        <v>94.45191693076882</v>
+        <v>276.6587833288852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.4990276876818</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.5552444969113</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>31.00266422667642</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4484135724446</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>276.6587833288852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.4990276876818</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>292.3198536837659</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>24.78602139017755</v>
       </c>
     </row>
     <row r="30">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>349.4603949008151</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>312.1925810422021</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.4484135724446</v>
+        <v>154.0020589155883</v>
       </c>
       <c r="H35" t="n">
         <v>276.6587833288852</v>
@@ -25207,22 +25207,22 @@
         <v>61.4990276876818</v>
       </c>
       <c r="T35" t="n">
-        <v>213.7716684859222</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.5552444969113</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>26.72735279334267</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H38" t="n">
-        <v>276.6587833288852</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>61.4990276876818</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.7716684859222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5552444969113</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>356.7336097309732</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>319.9474299331003</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>67.10449241681226</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>396.4484135724446</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>95.12122982809073</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>371.5739946154488</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>18.97250390244335</v>
+        <v>396.4484135724446</v>
       </c>
       <c r="H44" t="n">
         <v>276.6587833288852</v>
@@ -25924,16 +25924,16 @@
         <v>256.5552444969113</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474841.0502045634</v>
+        <v>474841.0502045633</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474841.0502045634</v>
+        <v>474841.0502045633</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>501758.4814375979</v>
+        <v>501758.481437598</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>501758.481437598</v>
+        <v>501758.4814375979</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>501758.4814375979</v>
+        <v>501758.481437598</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>501758.4814375981</v>
+        <v>501758.481437598</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501758.481437598</v>
+        <v>501758.4814375979</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>186005.1756518478</v>
       </c>
       <c r="D2" t="n">
-        <v>186005.1756518479</v>
+        <v>186005.1756518478</v>
       </c>
       <c r="E2" t="n">
         <v>207694.9872144927</v>
       </c>
       <c r="F2" t="n">
-        <v>207694.9872144927</v>
+        <v>207694.9872144928</v>
       </c>
       <c r="G2" t="n">
-        <v>207694.9872144927</v>
+        <v>207694.9872144928</v>
       </c>
       <c r="H2" t="n">
         <v>207694.9872144928</v>
@@ -26340,7 +26340,7 @@
         <v>207694.9872144928</v>
       </c>
       <c r="K2" t="n">
-        <v>207694.9872144927</v>
+        <v>207694.9872144928</v>
       </c>
       <c r="L2" t="n">
         <v>207694.9872144928</v>
@@ -26352,10 +26352,10 @@
         <v>207694.9872144928</v>
       </c>
       <c r="O2" t="n">
-        <v>207694.9872144928</v>
+        <v>207694.9872144927</v>
       </c>
       <c r="P2" t="n">
-        <v>207694.9872144928</v>
+        <v>207694.9872144927</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>213280.5335528887</v>
+        <v>213280.5335528888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21981.16938025734</v>
+        <v>21981.16938025738</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>69529.16287549015</v>
+      </c>
+      <c r="C4" t="n">
         <v>69529.16287549016</v>
       </c>
-      <c r="C4" t="n">
-        <v>69529.16287549018</v>
-      </c>
       <c r="D4" t="n">
-        <v>69529.16287549016</v>
+        <v>69529.16287549015</v>
       </c>
       <c r="E4" t="n">
         <v>49176.56114025957</v>
@@ -26432,7 +26432,7 @@
         <v>49176.56114025957</v>
       </c>
       <c r="G4" t="n">
-        <v>49176.56114025956</v>
+        <v>49176.56114025958</v>
       </c>
       <c r="H4" t="n">
         <v>49176.56114025957</v>
@@ -26441,25 +26441,25 @@
         <v>81766.90313344068</v>
       </c>
       <c r="J4" t="n">
-        <v>49176.56114025955</v>
+        <v>49176.56114025957</v>
       </c>
       <c r="K4" t="n">
         <v>49176.56114025956</v>
       </c>
       <c r="L4" t="n">
-        <v>49176.56114025955</v>
+        <v>49176.56114025957</v>
       </c>
       <c r="M4" t="n">
+        <v>49176.56114025957</v>
+      </c>
+      <c r="N4" t="n">
         <v>49176.56114025956</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>49176.56114025958</v>
       </c>
-      <c r="O4" t="n">
-        <v>49176.56114025957</v>
-      </c>
       <c r="P4" t="n">
-        <v>49176.56114025957</v>
+        <v>49176.56114025958</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>51020.47491267435</v>
@@ -26505,13 +26505,13 @@
         <v>51020.47491267435</v>
       </c>
       <c r="N5" t="n">
-        <v>51020.47491267436</v>
+        <v>51020.47491267435</v>
       </c>
       <c r="O5" t="n">
-        <v>51020.47491267436</v>
+        <v>51020.47491267435</v>
       </c>
       <c r="P5" t="n">
-        <v>51020.47491267436</v>
+        <v>51020.47491267435</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181436.2103694449</v>
+        <v>-181931.1005980261</v>
       </c>
       <c r="C6" t="n">
-        <v>42263.48821459993</v>
+        <v>41768.5979860187</v>
       </c>
       <c r="D6" t="n">
-        <v>42263.4882146</v>
+        <v>41768.59798601871</v>
       </c>
       <c r="E6" t="n">
-        <v>-105782.5823913299</v>
+        <v>-106178.8825673537</v>
       </c>
       <c r="F6" t="n">
-        <v>107497.9511615588</v>
+        <v>107101.6509855351</v>
       </c>
       <c r="G6" t="n">
-        <v>107497.9511615588</v>
+        <v>107101.6509855351</v>
       </c>
       <c r="H6" t="n">
-        <v>107497.9511615589</v>
+        <v>107101.6509855351</v>
       </c>
       <c r="I6" t="n">
         <v>-5565.392788394907</v>
       </c>
       <c r="J6" t="n">
-        <v>67110.95043557169</v>
+        <v>66714.65025954785</v>
       </c>
       <c r="K6" t="n">
-        <v>107497.9511615588</v>
+        <v>107101.6509855351</v>
       </c>
       <c r="L6" t="n">
-        <v>107497.9511615589</v>
+        <v>107101.6509855351</v>
       </c>
       <c r="M6" t="n">
-        <v>85516.78178130151</v>
+        <v>85120.4816052777</v>
       </c>
       <c r="N6" t="n">
-        <v>107497.9511615589</v>
+        <v>107101.6509855351</v>
       </c>
       <c r="O6" t="n">
-        <v>107497.9511615588</v>
+        <v>107101.650985535</v>
       </c>
       <c r="P6" t="n">
-        <v>107497.9511615589</v>
+        <v>107101.650985535</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>755.7207305170132</v>
@@ -26810,7 +26810,7 @@
         <v>755.7207305170132</v>
       </c>
       <c r="I4" t="n">
-        <v>1268.877340229902</v>
+        <v>1268.877340229901</v>
       </c>
       <c r="J4" t="n">
         <v>755.7207305170132</v>
@@ -26825,13 +26825,13 @@
         <v>755.7207305170132</v>
       </c>
       <c r="N4" t="n">
-        <v>755.7207305170133</v>
+        <v>755.7207305170132</v>
       </c>
       <c r="O4" t="n">
-        <v>755.7207305170133</v>
+        <v>755.7207305170132</v>
       </c>
       <c r="P4" t="n">
-        <v>755.7207305170133</v>
+        <v>755.7207305170132</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>88.20552390915613</v>
+        <v>88.20552390915627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>88.20552390915613</v>
+        <v>88.20552390915627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>88.20552390915613</v>
+        <v>88.20552390915627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>585.1784344521125</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>88.52591951400973</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>345.0097498941941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35488,19 +35488,19 @@
         <v>43.5592161726691</v>
       </c>
       <c r="J12" t="n">
-        <v>47.28667583739215</v>
+        <v>375.1233677224551</v>
       </c>
       <c r="K12" t="n">
-        <v>80.82046071701717</v>
+        <v>80.82046071701711</v>
       </c>
       <c r="L12" t="n">
-        <v>755.7207305170132</v>
+        <v>108.6730832983658</v>
       </c>
       <c r="M12" t="n">
-        <v>177.4827966826429</v>
+        <v>126.8163624309988</v>
       </c>
       <c r="N12" t="n">
-        <v>130.1728141906838</v>
+        <v>130.1728141906837</v>
       </c>
       <c r="O12" t="n">
         <v>119.0826936609726</v>
@@ -35509,7 +35509,7 @@
         <v>95.57436017865371</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.88892872064707</v>
+        <v>433.7663183058758</v>
       </c>
       <c r="R12" t="n">
         <v>149.4315090111343</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.3965221048243</v>
+        <v>50.3965221048235</v>
       </c>
       <c r="K13" t="n">
         <v>326.2843748954999</v>
@@ -35576,10 +35576,10 @@
         <v>484.818185241206</v>
       </c>
       <c r="M13" t="n">
-        <v>529.9002586081353</v>
+        <v>529.9002586081355</v>
       </c>
       <c r="N13" t="n">
-        <v>510.9372182188522</v>
+        <v>510.9372182188524</v>
       </c>
       <c r="O13" t="n">
         <v>483.2177265376733</v>
@@ -35588,7 +35588,7 @@
         <v>401.7664971862769</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0279683456047</v>
+        <v>205.0279683456051</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>375.1233677224551</v>
       </c>
       <c r="K15" t="n">
-        <v>450.6978503022458</v>
+        <v>80.82046071701711</v>
       </c>
       <c r="L15" t="n">
         <v>108.6730832983658</v>
       </c>
       <c r="M15" t="n">
-        <v>126.8163624309987</v>
+        <v>126.8163624309988</v>
       </c>
       <c r="N15" t="n">
-        <v>130.1728141906838</v>
+        <v>130.1728141906837</v>
       </c>
       <c r="O15" t="n">
         <v>119.0826936609726</v>
@@ -35746,7 +35746,7 @@
         <v>95.57436017865371</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.88892872064707</v>
+        <v>433.7663183058758</v>
       </c>
       <c r="R15" t="n">
         <v>149.4315090111343</v>
@@ -35810,22 +35810,22 @@
         <v>326.2843748954999</v>
       </c>
       <c r="L16" t="n">
-        <v>484.818185241206</v>
+        <v>484.8181852412059</v>
       </c>
       <c r="M16" t="n">
-        <v>529.9002586081355</v>
+        <v>529.9002586081353</v>
       </c>
       <c r="N16" t="n">
         <v>510.9372182188522</v>
       </c>
       <c r="O16" t="n">
-        <v>483.2177265376733</v>
+        <v>483.2177265376731</v>
       </c>
       <c r="P16" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.3041222194729</v>
+        <v>138.3041222194738</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>166.9128068929542</v>
       </c>
       <c r="O17" t="n">
+        <v>755.7207305170132</v>
+      </c>
+      <c r="P17" t="n">
         <v>201.4936698438883</v>
-      </c>
-      <c r="P17" t="n">
-        <v>755.7207305170132</v>
       </c>
       <c r="Q17" t="n">
         <v>653.0359169980943</v>
@@ -35962,16 +35962,16 @@
         <v>43.5592161726691</v>
       </c>
       <c r="J18" t="n">
-        <v>198.7998091944759</v>
+        <v>375.1233677224551</v>
       </c>
       <c r="K18" t="n">
-        <v>80.82046071701717</v>
+        <v>80.82046071701711</v>
       </c>
       <c r="L18" t="n">
         <v>108.6730832983658</v>
       </c>
       <c r="M18" t="n">
-        <v>126.8163624309987</v>
+        <v>126.8163624309988</v>
       </c>
       <c r="N18" t="n">
         <v>130.1728141906837</v>
@@ -35983,7 +35983,7 @@
         <v>95.57436017865371</v>
       </c>
       <c r="Q18" t="n">
-        <v>610.0898768338549</v>
+        <v>433.7663183058758</v>
       </c>
       <c r="R18" t="n">
         <v>149.4315090111343</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>50.39652210482291</v>
+        <v>117.1203682309554</v>
       </c>
       <c r="K19" t="n">
         <v>326.2843748954999</v>
       </c>
       <c r="L19" t="n">
-        <v>484.818185241206</v>
+        <v>484.8181852412059</v>
       </c>
       <c r="M19" t="n">
         <v>529.9002586081353</v>
@@ -36056,13 +36056,13 @@
         <v>510.9372182188522</v>
       </c>
       <c r="O19" t="n">
-        <v>483.2177265376733</v>
+        <v>483.2177265376731</v>
       </c>
       <c r="P19" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0279683456051</v>
+        <v>138.3041222194738</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,13 +36132,13 @@
         <v>164.2549894405024</v>
       </c>
       <c r="N20" t="n">
-        <v>233.8891087001034</v>
+        <v>166.9128068929542</v>
       </c>
       <c r="O20" t="n">
         <v>755.7207305170132</v>
       </c>
       <c r="P20" t="n">
-        <v>134.5173680367391</v>
+        <v>201.4936698438883</v>
       </c>
       <c r="Q20" t="n">
         <v>653.0359169980943</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>43.55921617266904</v>
+        <v>43.5592161726691</v>
       </c>
       <c r="J21" t="n">
-        <v>375.123367722455</v>
+        <v>375.1233677224551</v>
       </c>
       <c r="K21" t="n">
         <v>80.82046071701711</v>
@@ -36208,22 +36208,22 @@
         <v>108.6730832983658</v>
       </c>
       <c r="M21" t="n">
-        <v>126.8163624309987</v>
+        <v>126.8163624309988</v>
       </c>
       <c r="N21" t="n">
-        <v>130.1728141906838</v>
+        <v>130.1728141906837</v>
       </c>
       <c r="O21" t="n">
-        <v>119.0826936609728</v>
+        <v>119.0826936609726</v>
       </c>
       <c r="P21" t="n">
-        <v>95.57436017865348</v>
+        <v>95.57436017865371</v>
       </c>
       <c r="Q21" t="n">
         <v>433.7663183058758</v>
       </c>
       <c r="R21" t="n">
-        <v>149.4315090111345</v>
+        <v>149.4315090111343</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>50.39652210482336</v>
+        <v>117.1203682309554</v>
       </c>
       <c r="K22" t="n">
         <v>326.2843748954999</v>
       </c>
       <c r="L22" t="n">
-        <v>484.818185241206</v>
+        <v>484.8181852412059</v>
       </c>
       <c r="M22" t="n">
-        <v>529.9002586081353</v>
+        <v>463.1764124820036</v>
       </c>
       <c r="N22" t="n">
-        <v>510.9372182188522</v>
+        <v>510.9372182188524</v>
       </c>
       <c r="O22" t="n">
         <v>483.2177265376733</v>
       </c>
       <c r="P22" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0279683456051</v>
+        <v>205.0279683456047</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>79.3942574588759</v>
       </c>
       <c r="K23" t="n">
-        <v>118.9914110927641</v>
+        <v>961.7694837777925</v>
       </c>
       <c r="L23" t="n">
-        <v>1233.538525232064</v>
+        <v>1233.538525232065</v>
       </c>
       <c r="M23" t="n">
-        <v>1268.877340229902</v>
+        <v>164.2549894405024</v>
       </c>
       <c r="N23" t="n">
-        <v>845.8025341463658</v>
+        <v>166.912806892954</v>
       </c>
       <c r="O23" t="n">
         <v>1147.691501742192</v>
       </c>
       <c r="P23" t="n">
-        <v>134.5173680367388</v>
+        <v>971.1940092825935</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.0169412823425</v>
+        <v>205.0743053942697</v>
       </c>
       <c r="R23" t="n">
         <v>58.76080089663901</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>43.55921617266907</v>
+        <v>43.55921617266908</v>
       </c>
       <c r="J24" t="n">
         <v>375.1233677224551</v>
       </c>
       <c r="K24" t="n">
-        <v>80.82046071701711</v>
+        <v>450.6978503022458</v>
       </c>
       <c r="L24" t="n">
         <v>108.6730832983658</v>
       </c>
       <c r="M24" t="n">
-        <v>126.8163624309988</v>
+        <v>126.8163624309987</v>
       </c>
       <c r="N24" t="n">
-        <v>130.1728141906837</v>
+        <v>130.1728141906838</v>
       </c>
       <c r="O24" t="n">
         <v>119.0826936609726</v>
@@ -36457,7 +36457,7 @@
         <v>95.57436017865371</v>
       </c>
       <c r="Q24" t="n">
-        <v>433.7663183058758</v>
+        <v>63.88892872064707</v>
       </c>
       <c r="R24" t="n">
         <v>149.4315090111343</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>117.1203682309554</v>
+        <v>117.1203682309555</v>
       </c>
       <c r="K25" t="n">
         <v>326.2843748954999</v>
@@ -36530,10 +36530,10 @@
         <v>510.9372182188522</v>
       </c>
       <c r="O25" t="n">
-        <v>483.2177265376731</v>
+        <v>483.2177265376736</v>
       </c>
       <c r="P25" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q25" t="n">
         <v>138.3041222194729</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>43.5592161726691</v>
+        <v>17.23227358634828</v>
       </c>
       <c r="J27" t="n">
-        <v>198.7998091944759</v>
+        <v>375.1233677224551</v>
       </c>
       <c r="K27" t="n">
-        <v>80.82046071701717</v>
+        <v>80.82046071701711</v>
       </c>
       <c r="L27" t="n">
         <v>108.6730832983658</v>
       </c>
       <c r="M27" t="n">
-        <v>126.8163624309987</v>
+        <v>126.8163624309988</v>
       </c>
       <c r="N27" t="n">
         <v>130.1728141906837</v>
@@ -36691,13 +36691,13 @@
         <v>119.0826936609726</v>
       </c>
       <c r="P27" t="n">
-        <v>95.57436017865371</v>
+        <v>95.57436017865359</v>
       </c>
       <c r="Q27" t="n">
-        <v>610.0898768338549</v>
+        <v>578.4496024016307</v>
       </c>
       <c r="R27" t="n">
-        <v>149.4315090111343</v>
+        <v>31.07516750170021</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,19 +36758,19 @@
         <v>326.2843748954999</v>
       </c>
       <c r="L28" t="n">
-        <v>484.818185241206</v>
+        <v>418.094339115074</v>
       </c>
       <c r="M28" t="n">
-        <v>463.1764124820032</v>
+        <v>529.9002586081355</v>
       </c>
       <c r="N28" t="n">
-        <v>510.9372182188522</v>
+        <v>510.9372182188524</v>
       </c>
       <c r="O28" t="n">
         <v>483.2177265376733</v>
       </c>
       <c r="P28" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q28" t="n">
         <v>205.0279683456051</v>
@@ -36834,10 +36834,10 @@
         <v>519.0454569062678</v>
       </c>
       <c r="K29" t="n">
-        <v>755.7207305170131</v>
+        <v>162.8740504775977</v>
       </c>
       <c r="L29" t="n">
-        <v>175.976049841752</v>
+        <v>147.6193674008932</v>
       </c>
       <c r="M29" t="n">
         <v>164.2549894405024</v>
@@ -36849,7 +36849,7 @@
         <v>157.6110304590545</v>
       </c>
       <c r="P29" t="n">
-        <v>134.5173680367391</v>
+        <v>755.7207305170132</v>
       </c>
       <c r="Q29" t="n">
         <v>653.0359169980943</v>
@@ -36910,10 +36910,10 @@
         <v>17.23227358634828</v>
       </c>
       <c r="J30" t="n">
-        <v>343.4830932902308</v>
+        <v>375.1233677224551</v>
       </c>
       <c r="K30" t="n">
-        <v>80.82046071701717</v>
+        <v>80.82046071701711</v>
       </c>
       <c r="L30" t="n">
         <v>108.6730832983658</v>
@@ -36928,10 +36928,10 @@
         <v>119.0826936609726</v>
       </c>
       <c r="P30" t="n">
-        <v>95.57436017865371</v>
+        <v>95.57436017865359</v>
       </c>
       <c r="Q30" t="n">
-        <v>610.0898768338548</v>
+        <v>578.4496024016307</v>
       </c>
       <c r="R30" t="n">
         <v>31.07516750170021</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.39652210482305</v>
+        <v>50.3965221048235</v>
       </c>
       <c r="K31" t="n">
         <v>326.2843748954999</v>
@@ -37010,7 +37010,7 @@
         <v>401.7664971862769</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0279683456051</v>
+        <v>205.0279683456047</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>35.65090947930172</v>
       </c>
       <c r="J32" t="n">
-        <v>519.0454569062678</v>
+        <v>79.3942574588759</v>
       </c>
       <c r="K32" t="n">
-        <v>162.8740504775977</v>
+        <v>118.9914110927641</v>
       </c>
       <c r="L32" t="n">
         <v>147.6193674008932</v>
@@ -37083,7 +37083,7 @@
         <v>166.9128068929542</v>
       </c>
       <c r="O32" t="n">
-        <v>157.6110304590545</v>
+        <v>641.1448692912802</v>
       </c>
       <c r="P32" t="n">
         <v>755.7207305170132</v>
@@ -37150,7 +37150,7 @@
         <v>375.1233677224551</v>
       </c>
       <c r="K33" t="n">
-        <v>80.82046071701717</v>
+        <v>80.82046071701711</v>
       </c>
       <c r="L33" t="n">
         <v>108.6730832983658</v>
@@ -37162,13 +37162,13 @@
         <v>130.1728141906837</v>
       </c>
       <c r="O33" t="n">
-        <v>119.0826936609727</v>
+        <v>119.0826936609726</v>
       </c>
       <c r="P33" t="n">
         <v>95.57436017865371</v>
       </c>
       <c r="Q33" t="n">
-        <v>433.7663183058755</v>
+        <v>433.7663183058758</v>
       </c>
       <c r="R33" t="n">
         <v>149.4315090111343</v>
@@ -37229,25 +37229,25 @@
         <v>117.1203682309554</v>
       </c>
       <c r="K34" t="n">
-        <v>259.560528769367</v>
+        <v>326.2843748954999</v>
       </c>
       <c r="L34" t="n">
-        <v>484.818185241206</v>
+        <v>484.8181852412059</v>
       </c>
       <c r="M34" t="n">
-        <v>529.9002586081355</v>
+        <v>529.9002586081353</v>
       </c>
       <c r="N34" t="n">
-        <v>510.9372182188524</v>
+        <v>510.9372182188522</v>
       </c>
       <c r="O34" t="n">
-        <v>483.2177265376733</v>
+        <v>483.2177265376731</v>
       </c>
       <c r="P34" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0279683456051</v>
+        <v>138.3041222194734</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>35.65090947930172</v>
       </c>
       <c r="J35" t="n">
-        <v>519.0454569062678</v>
+        <v>79.3942574588759</v>
       </c>
       <c r="K35" t="n">
-        <v>118.991411092764</v>
+        <v>118.9914110927641</v>
       </c>
       <c r="L35" t="n">
         <v>147.6193674008932</v>
@@ -37317,19 +37317,19 @@
         <v>164.2549894405024</v>
       </c>
       <c r="N35" t="n">
+        <v>166.9128068929542</v>
+      </c>
+      <c r="O35" t="n">
         <v>755.7207305170132</v>
       </c>
-      <c r="O35" t="n">
-        <v>157.6110304590545</v>
-      </c>
       <c r="P35" t="n">
-        <v>210.795446277788</v>
+        <v>755.720730517013</v>
       </c>
       <c r="Q35" t="n">
         <v>653.0359169980943</v>
       </c>
       <c r="R35" t="n">
-        <v>229.6234925663935</v>
+        <v>115.0476313406607</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37472,19 +37472,19 @@
         <v>484.8181852412059</v>
       </c>
       <c r="M37" t="n">
-        <v>463.1764124820036</v>
+        <v>529.9002586081353</v>
       </c>
       <c r="N37" t="n">
-        <v>510.9372182188524</v>
+        <v>510.9372182188522</v>
       </c>
       <c r="O37" t="n">
-        <v>483.2177265376733</v>
+        <v>483.2177265376731</v>
       </c>
       <c r="P37" t="n">
         <v>401.7664971862769</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0279683456051</v>
+        <v>138.3041222194738</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>519.0454569062678</v>
       </c>
       <c r="K38" t="n">
-        <v>118.991411092764</v>
+        <v>162.8740504775977</v>
       </c>
       <c r="L38" t="n">
         <v>147.6193674008932</v>
@@ -37557,7 +37557,7 @@
         <v>166.9128068929542</v>
       </c>
       <c r="O38" t="n">
-        <v>201.4936698438887</v>
+        <v>157.6110304590545</v>
       </c>
       <c r="P38" t="n">
         <v>755.7207305170132</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>43.55921617266909</v>
+        <v>43.5592161726691</v>
       </c>
       <c r="J39" t="n">
         <v>375.1233677224551</v>
@@ -37706,22 +37706,22 @@
         <v>326.2843748954999</v>
       </c>
       <c r="L40" t="n">
-        <v>484.818185241206</v>
+        <v>484.8181852412059</v>
       </c>
       <c r="M40" t="n">
-        <v>529.9002586081355</v>
+        <v>463.1764124820036</v>
       </c>
       <c r="N40" t="n">
-        <v>510.9372182188522</v>
+        <v>510.9372182188524</v>
       </c>
       <c r="O40" t="n">
         <v>483.2177265376733</v>
       </c>
       <c r="P40" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.3041222194734</v>
+        <v>205.0279683456051</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>35.65090947930172</v>
       </c>
       <c r="J41" t="n">
-        <v>519.0454569062678</v>
+        <v>79.3942574588759</v>
       </c>
       <c r="K41" t="n">
-        <v>118.991411092764</v>
+        <v>755.7207305170132</v>
       </c>
       <c r="L41" t="n">
         <v>147.6193674008932</v>
@@ -37794,16 +37794,16 @@
         <v>166.9128068929542</v>
       </c>
       <c r="O41" t="n">
-        <v>201.4936698438887</v>
+        <v>727.2972172525376</v>
       </c>
       <c r="P41" t="n">
         <v>755.7207305170132</v>
       </c>
       <c r="Q41" t="n">
-        <v>653.0359169980943</v>
+        <v>101.016941282342</v>
       </c>
       <c r="R41" t="n">
-        <v>229.6234925663935</v>
+        <v>58.76080089663901</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>43.55921617266904</v>
+        <v>43.5592161726691</v>
       </c>
       <c r="J42" t="n">
-        <v>375.1233677224552</v>
+        <v>375.1233677224551</v>
       </c>
       <c r="K42" t="n">
         <v>80.82046071701711</v>
@@ -37867,22 +37867,22 @@
         <v>108.6730832983658</v>
       </c>
       <c r="M42" t="n">
-        <v>126.8163624309989</v>
+        <v>126.8163624309988</v>
       </c>
       <c r="N42" t="n">
-        <v>130.1728141906838</v>
+        <v>130.1728141906837</v>
       </c>
       <c r="O42" t="n">
-        <v>119.0826936609728</v>
+        <v>119.0826936609726</v>
       </c>
       <c r="P42" t="n">
-        <v>95.57436017865348</v>
+        <v>95.57436017865371</v>
       </c>
       <c r="Q42" t="n">
         <v>433.7663183058758</v>
       </c>
       <c r="R42" t="n">
-        <v>149.431509011134</v>
+        <v>149.4315090111343</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>79.3942574588759</v>
       </c>
       <c r="K44" t="n">
-        <v>118.9914110927641</v>
+        <v>755.7207305170132</v>
       </c>
       <c r="L44" t="n">
-        <v>755.7207305170133</v>
+        <v>755.7207305170132</v>
       </c>
       <c r="M44" t="n">
-        <v>624.1018797285763</v>
+        <v>164.2549894405024</v>
       </c>
       <c r="N44" t="n">
-        <v>755.7207305170132</v>
+        <v>166.9128068929542</v>
       </c>
       <c r="O44" t="n">
-        <v>157.6110304590543</v>
+        <v>157.6110304590545</v>
       </c>
       <c r="P44" t="n">
-        <v>134.5173680367388</v>
+        <v>717.3055541943763</v>
       </c>
       <c r="Q44" t="n">
         <v>101.016941282342</v>
       </c>
       <c r="R44" t="n">
-        <v>229.6234925663935</v>
+        <v>58.76080089663901</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>43.55921617266909</v>
+        <v>17.23227358634828</v>
       </c>
       <c r="J45" t="n">
-        <v>375.1233677224551</v>
+        <v>47.28667583739214</v>
       </c>
       <c r="K45" t="n">
-        <v>80.82046071701711</v>
+        <v>377.0168781698559</v>
       </c>
       <c r="L45" t="n">
         <v>108.6730832983658</v>
@@ -38116,10 +38116,10 @@
         <v>95.57436017865371</v>
       </c>
       <c r="Q45" t="n">
-        <v>433.7663183058758</v>
+        <v>610.0898768338548</v>
       </c>
       <c r="R45" t="n">
-        <v>149.4315090111343</v>
+        <v>31.07516750170021</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.3965221048229</v>
+        <v>117.1203682309554</v>
       </c>
       <c r="K46" t="n">
         <v>326.2843748954999</v>
       </c>
       <c r="L46" t="n">
-        <v>484.818185241206</v>
+        <v>484.8181852412059</v>
       </c>
       <c r="M46" t="n">
-        <v>529.9002586081353</v>
+        <v>463.1764124820036</v>
       </c>
       <c r="N46" t="n">
-        <v>510.9372182188522</v>
+        <v>510.9372182188524</v>
       </c>
       <c r="O46" t="n">
         <v>483.2177265376733</v>
       </c>
       <c r="P46" t="n">
-        <v>401.7664971862773</v>
+        <v>401.7664971862769</v>
       </c>
       <c r="Q46" t="n">
         <v>205.0279683456051</v>
